--- a/biology/Zoologie/Crevette_banane/Crevette_banane.xlsx
+++ b/biology/Zoologie/Crevette_banane/Crevette_banane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fenneropenaeus merguiensis
 La crevette banane (Fenneropenaeus merguiensis syn. non admis par ITIS Penaeus merguiensis) est une espèce de crevettes de la famille des Penaeidae. Cette espèce est originaire de l'océan Indien et de l'est de l'océan Pacifique. On la trouve depuis le golfe Persique jusqu'à l'Australie.
